--- a/data/trans_bre/P15B_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15B_3_R-Edad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>3.767223639375545</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4273198048589904</v>
+        <v>-0.4273198048589905</v>
       </c>
     </row>
     <row r="5">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-30.48052704082756</v>
+        <v>-30.246447500852</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.50441482663953</v>
+        <v>-12.1413363610905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.260024465010831</v>
+        <v>-2.291288707805839</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-55.00709777792749</v>
+        <v>-61.63138505925016</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.540206948394648</v>
+        <v>-5.512895423414222</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.352323867171699</v>
+        <v>5.937790934979957</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31.86129507134233</v>
+        <v>30.10770292126682</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.12349221807591</v>
+        <v>20.56747806852545</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -744,25 +744,25 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-28.33090163262166</v>
+        <v>-28.92227107531977</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-28.05842696269804</v>
+        <v>-27.66071975825179</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-24.52961507053685</v>
+        <v>-26.49544582149916</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-52.68544806590491</v>
+        <v>-48.56541061958841</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7012472651363858</v>
+        <v>-0.7235544420308483</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9030710371848149</v>
+        <v>-0.8922829693199439</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8224239632388636</v>
+        <v>-0.8414665518837507</v>
       </c>
       <c r="J8" s="6" t="n">
         <v>-1</v>
@@ -776,28 +776,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>24.22288842625912</v>
+        <v>25.99141951672342</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.082882418582006</v>
+        <v>3.039372763766807</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.35421091745644</v>
+        <v>13.76674426277074</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.2196187433538889</v>
+        <v>1.086341489855389</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.248100688961583</v>
+        <v>1.479479592868671</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2233121592205873</v>
+        <v>0.2892332949556476</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.021285530523968</v>
+        <v>0.9340296551333783</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6416549071898016</v>
+        <v>0.6928022829600393</v>
       </c>
     </row>
     <row r="10">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-68.71002209287646</v>
+        <v>-67.46306483432093</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-31.69763425856277</v>
+        <v>-32.75584813951234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-33.87093268794336</v>
+        <v>-33.78200752333962</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-34.3786314456256</v>
+        <v>-32.26731064737145</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
@@ -865,7 +865,7 @@
         <v>-1</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.92579060331783</v>
+        <v>-0.8962294379840513</v>
       </c>
     </row>
     <row r="12">
@@ -876,28 +876,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-3.63686448244782</v>
+        <v>-1.746682696510325</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.278279896275022</v>
+        <v>-2.889841990726125</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.707657866551592</v>
+        <v>1.582461688751823</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4949719101286664</v>
+        <v>1.170820622899943</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1681699040216013</v>
+        <v>0.3556370744383011</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1514547054223701</v>
+        <v>0.09725790122315826</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9928500562146817</v>
+        <v>0.7980616385593307</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2456920754876056</v>
+        <v>0.5613041370032686</v>
       </c>
     </row>
     <row r="13">
@@ -944,28 +944,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-78.80253537995124</v>
+        <v>-76.46311059123609</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-51.67112819351893</v>
+        <v>-51.46352765114665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-30.40161013396009</v>
+        <v>-31.63355224297474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-31.40592850976758</v>
+        <v>-31.13226728855776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9360033984303673</v>
+        <v>-0.9398301496165214</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9593659712115911</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.9276955253608224</v>
+        <v>-0.9235355419503449</v>
       </c>
     </row>
     <row r="15">
@@ -976,28 +976,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-4.399722004511317</v>
+        <v>-9.155625354660033</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-8.400384462990305</v>
+        <v>-8.516430010156549</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.470716850667912</v>
+        <v>11.42705554186355</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-3.910550277853194</v>
+        <v>-3.143792021384091</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.01275596822033044</v>
+        <v>-0.1127147701655257</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1251985084398366</v>
+        <v>-0.09488230887276049</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.127704659873335</v>
+        <v>1.666033243973368</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1157816877690015</v>
+        <v>-0.04667870869693552</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         <v>3.160702976815116</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-12.9825635753867</v>
+        <v>-12.98256357538671</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-1</v>
@@ -1033,7 +1033,7 @@
         <v>0.4266970688533162</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.447332829437196</v>
+        <v>-0.4473328294371962</v>
       </c>
     </row>
     <row r="17">
@@ -1044,16 +1044,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-59.24740135489262</v>
+        <v>-57.99415663976126</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-74.18878303272481</v>
+        <v>-73.47962061391587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.86228989776721</v>
+        <v>-21.561689678804</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-32.7539717969913</v>
+        <v>-34.47053392476984</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.7672430357912935</v>
+        <v>-0.7703018478943087</v>
       </c>
     </row>
     <row r="18">
@@ -1075,21 +1075,21 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-18.05994859607997</v>
+        <v>-16.06865982720022</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.56830042475387</v>
+        <v>17.66288734518001</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.678108829240665</v>
+        <v>4.071308655095133</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>-0.622420979407057</v>
+        <v>-0.3471410850632319</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>0.4443502240276084</v>
+        <v>0.2765633012095937</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1133,7 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>-23.91902471416268</v>
+        <v>-21.12300652806999</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -1151,7 +1151,7 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>2.538379081604215</v>
+        <v>2.596133212072412</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>10.94909938519218</v>
+        <v>10.84879784253299</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="inlineStr"/>
@@ -1270,28 +1270,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-33.04726828028486</v>
+        <v>-32.27924884512387</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-22.00324347664232</v>
+        <v>-21.76762502972014</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-14.2421597157429</v>
+        <v>-13.97156245653256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-22.71143321573534</v>
+        <v>-22.52037148589103</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8428747601493419</v>
+        <v>-0.8456162596619125</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8799530673168863</v>
+        <v>-0.8768164352845403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.752890180372373</v>
+        <v>-0.7615222385160381</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8128047584277402</v>
+        <v>-0.8190801149492934</v>
       </c>
     </row>
     <row r="27">
@@ -1302,28 +1302,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-11.38037721112311</v>
+        <v>-11.84450732954484</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-10.38899760072177</v>
+        <v>-10.29354910615068</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-1.801715964332646</v>
+        <v>-1.57208998688999</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-8.496038627880194</v>
+        <v>-8.380889526361157</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3680138470103372</v>
+        <v>-0.3974701367880464</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.53489758475895</v>
+        <v>-0.5472442932295586</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1077275065103238</v>
+        <v>-0.1239122949333067</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.4584175354823263</v>
+        <v>-0.4562825893488202</v>
       </c>
     </row>
     <row r="28">
